--- a/xlsx/电话_intext.xlsx
+++ b/xlsx/电话_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="411">
   <si>
     <t>电话</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A3%BD%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>和製漢語</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_电话</t>
+    <t>和制汉语</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
+    <t>意大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E9%9F%B3</t>
   </si>
   <si>
-    <t>聲音</t>
+    <t>声音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E7%A8%8B%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>遠程通信</t>
+    <t>远程通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E6%A0%BC%E6%8B%89%E6%B1%89%E5%A7%86%C2%B7%E8%B4%9D%E5%B0%94</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7%C2%B7%E7%A9%86%E9%BD%8A</t>
   </si>
   <si>
-    <t>安東尼奧·穆齊</t>
+    <t>安东尼奥·穆齐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E9%A2%A8</t>
   </si>
   <si>
-    <t>麥克風</t>
+    <t>麦克风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B3%E6%A9%9F</t>
   </si>
   <si>
-    <t>耳機</t>
+    <t>耳机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E8%99%9F%E7%A2%BC</t>
   </si>
   <si>
-    <t>電話號碼</t>
+    <t>电话号码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/rotary_dial</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%9F%B3%E5%A4%9A%E9%A0%BB</t>
   </si>
   <si>
-    <t>雙音多頻</t>
+    <t>双音多频</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/handset</t>
@@ -155,9 +155,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E9%9F%B3%E5%A4%9A%E9%A2%91</t>
   </si>
   <si>
-    <t>双音多频</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/ISDN</t>
   </si>
   <si>
@@ -197,13 +194,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8B%95%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>移動電話</t>
+    <t>移动电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%94%E9%8C%84%E6%A9%9F</t>
   </si>
   <si>
-    <t>答錄機</t>
+    <t>答录机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Text_messaging</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%A7%E7%9B%B8%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>照相手機</t>
+    <t>照相手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E6%B5%8F%E8%A7%88%E5%99%A8</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E7%B6%B2%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>固網電信</t>
+    <t>固网电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E8%80%81%E5%BC%8F%E7%94%B5%E8%AF%9D%E6%9C%8D%E5%8A%A1</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%A3%81%E5%B9%B2%E6%93%BE</t>
   </si>
   <si>
-    <t>電磁干擾</t>
+    <t>电磁干扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B2%E6%89%B0</t>
@@ -287,25 +284,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E6%A9%9F</t>
   </si>
   <si>
-    <t>總機</t>
+    <t>总机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E8%A9%B1%E6%96%B9</t>
   </si>
   <si>
-    <t>發話方</t>
+    <t>发话方</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%A7%86</t>
   </si>
   <si>
-    <t>歐姆</t>
+    <t>欧姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%A5%E8%99%9F%E9%9F%B3</t>
   </si>
   <si>
-    <t>撥號音</t>
+    <t>拨号音</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Push-button_telephone</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%97%E8%A9%B1%E6%96%B9</t>
   </si>
   <si>
-    <t>受話方</t>
+    <t>受话方</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rotary_dial</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AE%B9%E5%99%A8</t>
   </si>
   <si>
-    <t>電容器</t>
+    <t>电容器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/telephone_magneto</t>
@@ -359,13 +356,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%B9%BC%E9%8F%88%E6%8E%A5</t>
   </si>
   <si>
-    <t>中繼鏈接</t>
+    <t>中继链接</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E7%BA%96%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>光纖通訊</t>
+    <t>光纤通讯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Digital_Multiplex_System</t>
@@ -377,13 +374,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>通訊衛星</t>
+    <t>通讯卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AF%E5%B9%85</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際冠碼</t>
+    <t>国际冠码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E4%BF%A1%E8%81%94%E7%9B%9F</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/7%E8%99%9F%E4%BF%A1%E4%BB%A4</t>
   </si>
   <si>
-    <t>7號信令</t>
+    <t>7号信令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%A4</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E7%B6%B2%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>固網電話</t>
+    <t>固网电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BB%B3%E7%94%B5%E8%AF%9D</t>
@@ -491,13 +488,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E7%94%B5%E8%AF%9D</t>
   </si>
   <si>
-    <t>移动电话</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>智慧型手機</t>
+    <t>智慧型手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%81%B5%E9%80%9A</t>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%9C%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>傳真機</t>
+    <t>传真机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7</t>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%9C%9F</t>
   </si>
   <si>
-    <t>傳真</t>
+    <t>传真</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GPRS</t>
@@ -653,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>無線電話</t>
+    <t>无线电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E9%93%83%E9%9F%B3</t>
@@ -689,13 +683,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8A%E8%81%BD</t>
   </si>
   <si>
-    <t>竊聽</t>
+    <t>窃听</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A8%8A%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>視訊電話</t>
+    <t>视讯电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%96%87%C2%B7%E5%87%AF%E5%88%A9</t>
@@ -707,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>http://en.citizendium.org/wiki/Telephone</t>
@@ -731,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>Template talk-電信</t>
+    <t>Template talk-电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E4%BF%A1</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_mobile_phones</t>
@@ -809,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>光通訊</t>
+    <t>光通讯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semaphore_line</t>
@@ -875,19 +869,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BA%95%E9%9B%BB%E7%BA%9C</t>
   </si>
   <si>
-    <t>海底電纜</t>
+    <t>海底电缆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A8%8A%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>視訊會議</t>
+    <t>视讯会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E6%B8%A9%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
@@ -917,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%A0%93%C2%B7%E7%91%9F%E5%A4%AB</t>
   </si>
   <si>
-    <t>文頓·瑟夫</t>
+    <t>文顿·瑟夫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Claude_Chappe</t>
@@ -935,13 +929,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%BE%85%C2%B7%E6%B3%95%E6%81%A9%E6%96%AF%E6%B2%83%E6%96%AF</t>
   </si>
   <si>
-    <t>費羅·法恩斯沃斯</t>
+    <t>费罗·法恩斯沃斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E4%BF%A1%E9%81%94</t>
   </si>
   <si>
-    <t>范信達</t>
+    <t>范信达</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Elisha_Gray</t>
@@ -995,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E6%8B%93%E6%92%B2</t>
   </si>
   <si>
-    <t>網絡拓撲</t>
+    <t>网络拓扑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Telecommunications_link</t>
@@ -1025,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%BB%B8%E9%9B%BB%E7%BA%9C</t>
   </si>
   <si>
-    <t>同軸電纜</t>
+    <t>同轴电缆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Free-space_optical_communication</t>
@@ -1037,19 +1031,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%B0%8E%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>光導纖維</t>
+    <t>光导纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E9%A0%BB%E8%AD%9C</t>
   </si>
   <si>
-    <t>無線電頻譜</t>
+    <t>无线电频谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E7%B7%9A</t>
   </si>
   <si>
-    <t>電話線</t>
+    <t>电话线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%B3%A2</t>
@@ -1067,19 +1061,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%8C%85%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>封包交換</t>
+    <t>封包交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>電信交換</t>
+    <t>电信交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E4%BA%A4%E6%8F%9B%E5%99%A8</t>
   </si>
   <si>
-    <t>網路交換器</t>
+    <t>网路交换器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E8%B7%AF%E5%A4%8D%E7%94%A8</t>
@@ -1163,19 +1157,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>區域網路</t>
+    <t>区域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E4%B8%80%E4%BB%A3%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>下一代網絡</t>
+    <t>下一代网络</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NPL_network</t>
@@ -1193,19 +1187,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>廣播聯播網</t>
+    <t>广播联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>通訊裝置</t>
+    <t>通讯装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>電視聯播網</t>
+    <t>电视联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Telex</t>
@@ -1217,25 +1211,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>廣域網路</t>
+    <t>广域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>無線網路</t>
+    <t>无线网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%B3%87%E8%A8%8A%E7%B6%B2</t>
   </si>
   <si>
-    <t>全球資訊網</t>
+    <t>全球资讯网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1247,13 +1241,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2256,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -2288,10 +2282,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -2317,10 +2311,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -2346,10 +2340,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2375,10 +2369,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2404,10 +2398,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2433,10 +2427,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2462,10 +2456,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -2491,10 +2485,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2520,10 +2514,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2549,10 +2543,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2578,10 +2572,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2607,10 +2601,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2636,10 +2630,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2665,10 +2659,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2694,10 +2688,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2752,10 +2746,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2781,10 +2775,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2810,10 +2804,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2839,10 +2833,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2868,10 +2862,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2897,10 +2891,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2926,10 +2920,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2955,10 +2949,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -2984,10 +2978,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3013,10 +3007,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3042,10 +3036,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3071,10 +3065,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>6</v>
@@ -3100,10 +3094,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3129,10 +3123,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3158,10 +3152,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3187,10 +3181,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3216,10 +3210,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3245,10 +3239,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3274,10 +3268,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3303,10 +3297,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3332,10 +3326,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3361,10 +3355,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3390,10 +3384,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3419,10 +3413,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3448,10 +3442,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3477,10 +3471,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3506,10 +3500,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3535,10 +3529,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>12</v>
@@ -3564,10 +3558,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3593,10 +3587,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3622,10 +3616,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3651,10 +3645,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3709,10 +3703,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3738,10 +3732,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3767,10 +3761,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3796,10 +3790,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3825,10 +3819,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3854,10 +3848,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3883,10 +3877,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
@@ -3912,10 +3906,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3941,10 +3935,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -3970,10 +3964,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3999,10 +3993,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4028,10 +4022,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4057,10 +4051,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4086,10 +4080,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4115,10 +4109,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4144,10 +4138,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4173,10 +4167,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4202,10 +4196,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4231,10 +4225,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4260,10 +4254,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -4289,10 +4283,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -4318,10 +4312,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4347,10 +4341,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4376,10 +4370,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4405,10 +4399,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4434,10 +4428,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4463,10 +4457,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4492,10 +4486,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4521,10 +4515,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4550,10 +4544,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4579,10 +4573,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4608,10 +4602,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4637,10 +4631,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>7</v>
@@ -4666,10 +4660,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4695,10 +4689,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4724,10 +4718,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4753,10 +4747,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4782,10 +4776,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4811,10 +4805,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4840,10 +4834,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4869,10 +4863,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>5</v>
@@ -4898,10 +4892,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4927,10 +4921,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4956,10 +4950,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4985,10 +4979,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5014,10 +5008,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5043,10 +5037,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>13</v>
@@ -5072,10 +5066,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>5</v>
@@ -5101,10 +5095,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -5130,10 +5124,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>7</v>
@@ -5159,10 +5153,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5188,10 +5182,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5217,10 +5211,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5246,10 +5240,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>118</v>
+      </c>
+      <c r="F126" t="s">
         <v>119</v>
-      </c>
-      <c r="F126" t="s">
-        <v>120</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5275,10 +5269,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5304,10 +5298,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5333,10 +5327,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5362,10 +5356,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F130" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5391,10 +5385,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5420,10 +5414,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5449,10 +5443,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5478,10 +5472,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5507,10 +5501,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5536,10 +5530,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5565,10 +5559,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5594,10 +5588,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5623,10 +5617,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5652,10 +5646,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5681,10 +5675,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5710,10 +5704,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5739,10 +5733,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5768,10 +5762,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5797,10 +5791,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5826,10 +5820,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5855,10 +5849,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5884,10 +5878,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5913,10 +5907,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5942,10 +5936,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5971,10 +5965,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6000,10 +5994,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6029,10 +6023,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6058,10 +6052,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6087,10 +6081,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6116,10 +6110,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6145,10 +6139,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6174,10 +6168,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6203,10 +6197,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6232,10 +6226,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6261,10 +6255,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6290,10 +6284,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6319,10 +6313,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6348,10 +6342,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6377,10 +6371,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6406,10 +6400,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6435,10 +6429,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6464,10 +6458,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6493,10 +6487,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6522,10 +6516,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6551,10 +6545,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6580,10 +6574,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6609,10 +6603,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6638,10 +6632,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6667,10 +6661,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6696,10 +6690,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>19</v>
@@ -6725,10 +6719,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6754,10 +6748,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6783,10 +6777,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6812,10 +6806,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6841,10 +6835,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6870,10 +6864,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6899,10 +6893,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6928,10 +6922,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6957,10 +6951,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6986,10 +6980,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7015,10 +7009,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7044,10 +7038,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7073,10 +7067,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7102,10 +7096,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7131,10 +7125,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7160,10 +7154,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7189,10 +7183,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7218,10 +7212,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7247,10 +7241,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7276,10 +7270,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7305,10 +7299,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7334,10 +7328,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7363,10 +7357,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7392,10 +7386,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7421,10 +7415,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7450,10 +7444,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7479,10 +7473,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7508,10 +7502,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7537,10 +7531,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7566,10 +7560,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7595,10 +7589,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -7624,10 +7618,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7653,10 +7647,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7682,10 +7676,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
